--- a/ControlBook Mensal/clientes/GRUPO VENEZA.xlsx
+++ b/ControlBook Mensal/clientes/GRUPO VENEZA.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +57,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,606 +567,607 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202302000571</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 14:20</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 13:56</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 16:38</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>09/02/2023 17:35</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="4" t="n">
         <v>44968.77083333334</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 - 10MBPS - BASEIP: 177.1.46.250</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>CASCAVEL / PR</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>ROMPIMENTO DE FIBRA</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>EM NOSSO MONITORAMENTO, O LINK VOLTOU A FICAR OPERACIONAL</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>03:14:13</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>03:14:13</t>
         </is>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="3" t="n">
         <v>3725539</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>02:42:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>202302000589</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 11:27</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 11:20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 14:26</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 17:18</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="4" t="n">
         <v>44969.88819444444</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368  -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368 - 10MBPS - BASE IP: 201.18.12.94 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55755&amp;EVENTID=382671749</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>LUIS EDUARDO MAGALHÃES</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>CONFORME EVIDÊNCIAS EM ANEXO AO CHAMADO, O LINK FOI RESTABELECIDO EM NOSSO MONITORAMENTO, E A INDISPONIBILIDADE FOI DEVIDO POSSÍVELMENTE A UMA FALHA ELÉTRICA NO AMBIENTE DO CLIENTE OU FALTA DE ENERGIA NA LOCALIDADE</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>05:31:00</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>00:19:50</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>05:50:50</t>
         </is>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="3" t="n">
         <v>7783236738</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="3" t="inlineStr">
         <is>
           <t>03:06:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>202302000590</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 12:45</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 12:32</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 13:18</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 17:19</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="4" t="n">
         <v>44969.88819444444</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 - 10MBPS - BASEIP: 177.1.46.250</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>CASCAVEL / PR</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>CONFORME EVIDÊNCIAS EM ANEXO AO CHAMADO, O LINK FOI RESTABELECIDO EM NOSSO MONITORAMENTO, E A INDISPONIBILIDADE FOI DEVIDO POSSÍVELMENTE A UMA FALHA ELÉTRICA NO AMBIENTE DO CLIENTE OU FALTA DE ENERGIA NA LOCALIDADE.</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>03:44:00</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>00:49:36</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>04:33:36</t>
         </is>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="3" t="n">
         <v>3726004</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>00:46:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>202302000694</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>19/02/2023 15:34</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>19/02/2023 15:14</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="4" t="n">
         <v>44976.74722222222</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="4" t="n">
         <v>44977.26527777778</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="4" t="n">
         <v>44979.30208333334</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368  -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368 - 10MBPS - BASEIP: 201.18.12.94</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>LUIS EDUARDO MAGALHÃES</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>ROMPIMENTO DE FIBRA</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>REALIZADO REPARO NA FIBRA, APÓS ISSO CIRCUITO NORMALIZOU</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>01:13:27</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>01:13:27</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="3" t="inlineStr">
         <is>
           <t>77832373263</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>02:42:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>202302000711</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>23/02/2023 12:41</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>23/02/2023 12:24</t>
         </is>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="4" t="n">
         <v>44980.56111111111</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>23/02/2023 16:04</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="4" t="n">
         <v>44982.69513888889</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 - 10MBPS - BASEIP: 177.1.46.250</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>CASCAVEL / PR</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>O LINK VOLTOU A FICAR OPERACIONAL, SEM INTERNVENCAO TECNICA DA BASE NEM DA OI.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>03:22:58</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>03:22:58</t>
         </is>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="3" t="n">
         <v>3732516</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="3" t="inlineStr">
         <is>
           <t>01:04:00</t>
         </is>
       </c>
     </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ControlBook Mensal/clientes/GRUPO VENEZA.xlsx
+++ b/ControlBook Mensal/clientes/GRUPO VENEZA.xlsx
@@ -57,14 +57,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -439,729 +446,729 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>202302000571</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 14:20</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 13:56</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 16:38</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>09/02/2023 17:35</t>
         </is>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>44968.77083333334</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 - 10MBPS - BASEIP: 177.1.46.250</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>CASCAVEL / PR</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>ROMPIMENTO DE FIBRA</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>EM NOSSO MONITORAMENTO, O LINK VOLTOU A FICAR OPERACIONAL</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>03:14:13</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>03:14:13</t>
         </is>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="4" t="n">
         <v>3725539</v>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>02:42:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>202302000589</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 11:27</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 11:20</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 14:26</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 17:18</t>
         </is>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>44969.88819444444</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368  -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368 - 10MBPS - BASE IP: 201.18.12.94 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55755&amp;EVENTID=382671749</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>LUIS EDUARDO MAGALHÃES</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>CONFORME EVIDÊNCIAS EM ANEXO AO CHAMADO, O LINK FOI RESTABELECIDO EM NOSSO MONITORAMENTO, E A INDISPONIBILIDADE FOI DEVIDO POSSÍVELMENTE A UMA FALHA ELÉTRICA NO AMBIENTE DO CLIENTE OU FALTA DE ENERGIA NA LOCALIDADE</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>05:31:00</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>00:19:50</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>05:50:50</t>
         </is>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="4" t="n">
         <v>7783236738</v>
       </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>03:06:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>202302000590</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 12:45</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 12:32</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 13:18</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 17:19</t>
         </is>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>44969.88819444444</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 - 10MBPS - BASEIP: 177.1.46.250</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>CASCAVEL / PR</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>CONFORME EVIDÊNCIAS EM ANEXO AO CHAMADO, O LINK FOI RESTABELECIDO EM NOSSO MONITORAMENTO, E A INDISPONIBILIDADE FOI DEVIDO POSSÍVELMENTE A UMA FALHA ELÉTRICA NO AMBIENTE DO CLIENTE OU FALTA DE ENERGIA NA LOCALIDADE.</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>03:44:00</t>
         </is>
       </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>00:49:36</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>04:33:36</t>
         </is>
       </c>
-      <c r="W4" s="3" t="n">
+      <c r="W4" s="4" t="n">
         <v>3726004</v>
       </c>
-      <c r="X4" s="3" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" s="3" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>00:46:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>202302000694</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>19/02/2023 15:34</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>19/02/2023 15:14</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>44976.74722222222</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>44977.26527777778</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>44979.30208333334</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368  -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368 - 10MBPS - BASEIP: 201.18.12.94</t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>LUIS EDUARDO MAGALHÃES</t>
         </is>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>ROMPIMENTO DE FIBRA</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>REALIZADO REPARO NA FIBRA, APÓS ISSO CIRCUITO NORMALIZOU</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>01:13:27</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>01:13:27</t>
         </is>
       </c>
-      <c r="W5" s="3" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>77832373263</t>
         </is>
       </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>02:42:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>202302000711</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>23/02/2023 12:41</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>23/02/2023 12:24</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>44980.56111111111</v>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>23/02/2023 16:04</t>
         </is>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>44982.69513888889</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 - 10MBPS - BASEIP: 177.1.46.250</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>CASCAVEL / PR</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>O LINK VOLTOU A FICAR OPERACIONAL, SEM INTERNVENCAO TECNICA DA BASE NEM DA OI.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>03:22:58</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>03:22:58</t>
         </is>
       </c>
-      <c r="W6" s="3" t="n">
+      <c r="W6" s="4" t="n">
         <v>3732516</v>
       </c>
-      <c r="X6" s="3" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" s="3" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>01:04:00</t>
         </is>

--- a/ControlBook Mensal/clientes/GRUPO VENEZA.xlsx
+++ b/ControlBook Mensal/clientes/GRUPO VENEZA.xlsx
@@ -57,13 +57,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -451,724 +457,724 @@
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>202302000571</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 14:20</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 13:56</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 16:38</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>09/02/2023 17:35</t>
         </is>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="7" t="n">
         <v>44968.77083333334</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 - 10MBPS - BASEIP: 177.1.46.250</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="6" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="6" t="inlineStr">
         <is>
           <t>CASCAVEL / PR</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="6" t="inlineStr">
         <is>
           <t>ROMPIMENTO DE FIBRA</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="6" t="inlineStr">
         <is>
           <t>EM NOSSO MONITORAMENTO, O LINK VOLTOU A FICAR OPERACIONAL</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t>03:14:13</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="6" t="inlineStr">
         <is>
           <t>03:14:13</t>
         </is>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="6" t="n">
         <v>3725539</v>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>02:42:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>202302000589</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 11:27</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 11:20</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 14:26</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 17:18</t>
         </is>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="7" t="n">
         <v>44969.88819444444</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368  -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368 - 10MBPS - BASE IP: 201.18.12.94 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55755&amp;EVENTID=382671749</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="6" t="inlineStr">
         <is>
           <t>LUIS EDUARDO MAGALHÃES</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="6" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="6" t="inlineStr">
         <is>
           <t>CONFORME EVIDÊNCIAS EM ANEXO AO CHAMADO, O LINK FOI RESTABELECIDO EM NOSSO MONITORAMENTO, E A INDISPONIBILIDADE FOI DEVIDO POSSÍVELMENTE A UMA FALHA ELÉTRICA NO AMBIENTE DO CLIENTE OU FALTA DE ENERGIA NA LOCALIDADE</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="6" t="inlineStr">
         <is>
           <t>05:31:00</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="6" t="inlineStr">
         <is>
           <t>00:19:50</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="6" t="inlineStr">
         <is>
           <t>05:50:50</t>
         </is>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="6" t="n">
         <v>7783236738</v>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="6" t="inlineStr">
         <is>
           <t>03:06:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>202302000590</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 12:45</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 12:32</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 13:18</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 17:19</t>
         </is>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="7" t="n">
         <v>44969.88819444444</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="6" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 - 10MBPS - BASEIP: 177.1.46.250</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="6" t="inlineStr">
         <is>
           <t>CASCAVEL / PR</t>
         </is>
       </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="Q4" s="6" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="R4" s="6" t="inlineStr">
         <is>
           <t>CONFORME EVIDÊNCIAS EM ANEXO AO CHAMADO, O LINK FOI RESTABELECIDO EM NOSSO MONITORAMENTO, E A INDISPONIBILIDADE FOI DEVIDO POSSÍVELMENTE A UMA FALHA ELÉTRICA NO AMBIENTE DO CLIENTE OU FALTA DE ENERGIA NA LOCALIDADE.</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="6" t="inlineStr">
         <is>
           <t>03:44:00</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="6" t="inlineStr">
         <is>
           <t>00:49:36</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="6" t="inlineStr">
         <is>
           <t>04:33:36</t>
         </is>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="6" t="n">
         <v>3726004</v>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="6" t="inlineStr">
         <is>
           <t>00:46:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>202302000694</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>19/02/2023 15:34</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>19/02/2023 15:14</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="7" t="n">
         <v>44976.74722222222</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="7" t="n">
         <v>44977.26527777778</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="7" t="n">
         <v>44979.30208333334</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368  -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="6" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - LUIS EDUARDO MAGALHAES/BA - MIOO5038368 - 10MBPS - BASEIP: 201.18.12.94</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="6" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="6" t="inlineStr">
         <is>
           <t>LUIS EDUARDO MAGALHÃES</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="6" t="inlineStr">
         <is>
           <t>ROMPIMENTO DE FIBRA</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="6" t="inlineStr">
         <is>
           <t>REALIZADO REPARO NA FIBRA, APÓS ISSO CIRCUITO NORMALIZOU</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="6" t="inlineStr">
         <is>
           <t>01:13:27</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="6" t="inlineStr">
         <is>
           <t>01:13:27</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="6" t="inlineStr">
         <is>
           <t>77832373263</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="6" t="inlineStr">
         <is>
           <t>02:42:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>202302000711</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>23/02/2023 12:41</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>23/02/2023 12:24</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="7" t="n">
         <v>44980.56111111111</v>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>23/02/2023 16:04</t>
         </is>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="7" t="n">
         <v>44982.69513888889</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>RTD-VENEZA  EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 -  10MBPS - BASE</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="6" t="inlineStr">
         <is>
           <t>RTD-VENEZA EQUIPAMENTOS - CASCAVEL/PR - CTA0829879 - 10MBPS - BASEIP: 177.1.46.250</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="6" t="inlineStr">
         <is>
           <t>GRUPO VENEZA</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O6" s="6" t="inlineStr">
         <is>
           <t>CASCAVEL / PR</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="6" t="inlineStr">
         <is>
           <t>O LINK VOLTOU A FICAR OPERACIONAL, SEM INTERNVENCAO TECNICA DA BASE NEM DA OI.{LUIZ CARLOS}</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="6" t="inlineStr">
         <is>
           <t>03:22:58</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="6" t="inlineStr">
         <is>
           <t>03:22:58</t>
         </is>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="W6" s="6" t="n">
         <v>3732516</v>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="6" t="inlineStr">
         <is>
           <t>01:04:00</t>
         </is>
